--- a/Data/g11.6b.xlsx
+++ b/Data/g11.6b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{049A39CC-3C1E-482F-BECF-134531F0D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45AB3E1-9DA9-4FD3-96CC-95FFE045162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{66BDAC5C-33E6-46B3-B94B-61C0DFCA9D2E}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Nordeste</t>
   </si>
   <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>RN</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45.159676985139185</v>
+        <v>44.962263374485602</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,15 +464,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>45.254400988969856</v>
+        <v>45.182469135802471</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>46.52590939260493</v>
+        <v>46.332222222222221</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>47.129261758713518</v>
+        <v>46.363333333333337</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>48.150208868271818</v>
+        <v>47.802222222222227</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>48.852562325648435</v>
+        <v>48.75333333333333</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>49.95724462894966</v>
+        <v>49.835555555555551</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>52.910975408431774</v>
+        <v>52.743333333333332</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>54.277070471768901</v>
+        <v>54.624444444444443</v>
       </c>
       <c r="C10">
         <v>1</v>
